--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_quarter.xlsx
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0501289273361039</v>
+        <v>0.04897152071431162</v>
       </c>
       <c r="H2" t="n">
-        <v>18.56792161880986</v>
+        <v>15.83035461096923</v>
       </c>
       <c r="I2" t="n">
-        <v>3.09749830484061</v>
+        <v>0.3745941685984026</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06434036611200526</v>
+        <v>0.06161644760434993</v>
       </c>
       <c r="H3" t="n">
-        <v>32.11479416671775</v>
+        <v>26.52157245051975</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.002081530883958155</v>
+        <v>-0.006093676716984563</v>
       </c>
       <c r="H4" t="n">
-        <v>-209.3300984541529</v>
+        <v>-420.063603451725</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003330581025049962</v>
+        <v>0.002707114828711582</v>
       </c>
       <c r="H5" t="n">
-        <v>-12.26888417903441</v>
+        <v>-28.69165986592789</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05250941875818949</v>
+        <v>0.02123993786832681</v>
       </c>
       <c r="H6" t="n">
-        <v>51.45675136777661</v>
+        <v>-38.73609602108809</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03388122041893029</v>
+        <v>0.07393751212338077</v>
       </c>
       <c r="H7" t="n">
-        <v>-36.30026033366502</v>
+        <v>39.00916837117111</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03055910017389616</v>
+        <v>-0.02444832773774197</v>
       </c>
       <c r="H8" t="n">
-        <v>62.36897860908102</v>
+        <v>-29.90074906944205</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01397426813308094</v>
+        <v>0.02894502473046889</v>
       </c>
       <c r="H9" t="n">
-        <v>-35.08765426146015</v>
+        <v>234.4535137598322</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08494708280577641</v>
+        <v>-0.08431391100214167</v>
       </c>
       <c r="H10" t="n">
-        <v>16.84387675564407</v>
+        <v>-15.97295516839898</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09458219360756082</v>
+        <v>-0.08399990927501251</v>
       </c>
       <c r="H11" t="n">
-        <v>2.794395145067212</v>
+        <v>8.706707501493383</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2453141146587162</v>
+        <v>-0.228404069243767</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3515868659013088</v>
+        <v>6.565870344929901</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2943947243139927</v>
+        <v>-0.2705652763176778</v>
       </c>
       <c r="H13" t="n">
-        <v>7.125386225200554</v>
+        <v>1.545757002950137</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.05713292623430688</v>
+        <v>-0.07851438935273379</v>
       </c>
       <c r="H14" t="n">
-        <v>54.00875558847422</v>
+        <v>-111.6450914909133</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.01385165981705021</v>
+        <v>-0.004228536505660871</v>
       </c>
       <c r="H15" t="n">
-        <v>-60.16359413732341</v>
+        <v>87.83902444403785</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1168992368829883</v>
+        <v>0.112293905996712</v>
       </c>
       <c r="H16" t="n">
-        <v>-6.710615433558723</v>
+        <v>-10.38581892984485</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1620568995456246</v>
+        <v>0.131772785580724</v>
       </c>
       <c r="H17" t="n">
-        <v>15.54818680480906</v>
+        <v>-6.044688706481937</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1244261305902153</v>
+        <v>0.1275524207718969</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2458003043524523</v>
+        <v>2.260591026879167</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1097170483884533</v>
+        <v>0.1233227248906218</v>
       </c>
       <c r="H19" t="n">
-        <v>-17.63840302325877</v>
+        <v>-7.424992608679556</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02054733082988783</v>
+        <v>0.04343994456343899</v>
       </c>
       <c r="H20" t="n">
-        <v>-40.15824971061325</v>
+        <v>26.51386871957572</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03194773430176465</v>
+        <v>0.04417070683778238</v>
       </c>
       <c r="H21" t="n">
-        <v>-44.95553079722414</v>
+        <v>-23.89591420688458</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.07264272051942054</v>
+        <v>-0.06929198704654332</v>
       </c>
       <c r="H22" t="n">
-        <v>-9.023726364076163</v>
+        <v>13.22011718107524</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.06366245384301809</v>
+        <v>-0.05384497281633821</v>
       </c>
       <c r="H23" t="n">
-        <v>1.784305434185332</v>
+        <v>13.91200262641725</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1066938573562159</v>
+        <v>0.1081806314496519</v>
       </c>
       <c r="H24" t="n">
-        <v>-9.669136059369684</v>
+        <v>-8.410379541679704</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1403503542735422</v>
+        <v>0.1319581053077023</v>
       </c>
       <c r="H25" t="n">
-        <v>11.23873843280408</v>
+        <v>4.587218439099161</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0425774104132309</v>
+        <v>0.06097260409071388</v>
       </c>
       <c r="H26" t="n">
-        <v>-14.33824697321164</v>
+        <v>22.67115595634789</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.04222173844696743</v>
+        <v>0.08627964584715897</v>
       </c>
       <c r="H27" t="n">
-        <v>-51.2881759176086</v>
+        <v>-0.4579374277349867</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09279259292967204</v>
+        <v>-0.09417325083052169</v>
       </c>
       <c r="H28" t="n">
-        <v>45.91398511009375</v>
+        <v>-48.0850344366213</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.06879016908431082</v>
+        <v>-0.1087870678671063</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.346884504712898</v>
+        <v>-52.85046068234131</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05551420657271311</v>
+        <v>0.05770942419999141</v>
       </c>
       <c r="H30" t="n">
-        <v>-12.86165617123764</v>
+        <v>-9.415914257693657</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06300192985922458</v>
+        <v>0.06150796584682331</v>
       </c>
       <c r="H31" t="n">
-        <v>3.997111517547468</v>
+        <v>1.531029250733402</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08682653016464859</v>
+        <v>0.07221310413608721</v>
       </c>
       <c r="H32" t="n">
-        <v>-11.63951795688944</v>
+        <v>-26.51111729106108</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1175573300670697</v>
+        <v>0.1084390441692693</v>
       </c>
       <c r="H33" t="n">
-        <v>42.86656296098686</v>
+        <v>31.78517683584134</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01157603939758789</v>
+        <v>-0.003873312572378081</v>
       </c>
       <c r="H34" t="n">
-        <v>-55.57112474902083</v>
+        <v>-114.8657857126932</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>0.01972703301199891</v>
+        <v>-0.006222015626087195</v>
       </c>
       <c r="H35" t="n">
-        <v>-275.9753915762735</v>
+        <v>44.49638546615682</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.002783274108770577</v>
+        <v>-0.007127508990366663</v>
       </c>
       <c r="H36" t="n">
-        <v>-617.1381434719132</v>
+        <v>-1424.306059271223</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.01176407778570125</v>
+        <v>-0.002929029570126664</v>
       </c>
       <c r="H37" t="n">
-        <v>-6.294173010580425</v>
+        <v>76.66904765975055</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0918793737389572</v>
+        <v>0.1088286692939782</v>
       </c>
       <c r="H38" t="n">
-        <v>-14.33739089312</v>
+        <v>1.465077285340419</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1284820203442742</v>
+        <v>0.09638141018461149</v>
       </c>
       <c r="H39" t="n">
-        <v>49.98581343281338</v>
+        <v>12.51258477727404</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02821166019267279</v>
+        <v>0.02254409658196638</v>
       </c>
       <c r="H40" t="n">
-        <v>849.8052680482092</v>
+        <v>658.9947401429642</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.01735611525691591</v>
+        <v>0.02142627828945714</v>
       </c>
       <c r="H41" t="n">
-        <v>15.73253795174144</v>
+        <v>42.8728450227983</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.09102148694556986</v>
+        <v>0.1023554189459312</v>
       </c>
       <c r="H42" t="n">
-        <v>-9.821792491631312</v>
+        <v>1.407134942014298</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1174699375795784</v>
+        <v>0.136312793752373</v>
       </c>
       <c r="H43" t="n">
-        <v>-2.226124014731506</v>
+        <v>13.45737016776097</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02618275740061246</v>
+        <v>0.02438424464352845</v>
       </c>
       <c r="H44" t="n">
-        <v>-26.63343322758745</v>
+        <v>-31.67303636276195</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.009807419556418444</v>
+        <v>0.007700669758706816</v>
       </c>
       <c r="H45" t="n">
-        <v>-40.08970546979528</v>
+        <v>-52.95914581098585</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05837465536491755</v>
+        <v>0.05991213956845752</v>
       </c>
       <c r="H46" t="n">
-        <v>61.08454965876076</v>
+        <v>65.32722910562802</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.06616548198982707</v>
+        <v>0.08146847173690272</v>
       </c>
       <c r="H47" t="n">
-        <v>31.17579356284131</v>
+        <v>61.51460110398956</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04824456618112537</v>
+        <v>0.04482967537714999</v>
       </c>
       <c r="H48" t="n">
-        <v>12.77021425751716</v>
+        <v>4.788010289000823</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04553359202000616</v>
+        <v>0.04394657357260019</v>
       </c>
       <c r="H49" t="n">
-        <v>-34.46150319280444</v>
+        <v>-36.74576847551215</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0236998857055008</v>
+        <v>0.02730252103732629</v>
       </c>
       <c r="H50" t="n">
-        <v>37.21002972219706</v>
+        <v>58.06741726830158</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03514392391458375</v>
+        <v>0.02689722657693246</v>
       </c>
       <c r="H51" t="n">
-        <v>80.50562656402536</v>
+        <v>38.14907942277376</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.1076096504136067</v>
+        <v>-0.09698905763952953</v>
       </c>
       <c r="H52" t="n">
-        <v>3.950132353302545</v>
+        <v>6.309282302283532</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.0785281188007729</v>
+        <v>-0.06842636825123943</v>
       </c>
       <c r="H53" t="n">
-        <v>-14.97145602756308</v>
+        <v>25.9094124426242</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.08262351600035628</v>
+        <v>0.07778875156170577</v>
       </c>
       <c r="H54" t="n">
-        <v>12.99303776359457</v>
+        <v>6.381182601292282</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09181772247879311</v>
+        <v>0.09184749469313373</v>
       </c>
       <c r="H55" t="n">
-        <v>48.20866209220911</v>
+        <v>48.25671926391652</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0377545912404869</v>
+        <v>0.02209074913251056</v>
       </c>
       <c r="H56" t="n">
-        <v>7.903510581198573</v>
+        <v>-36.86411892044853</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01152195305495956</v>
+        <v>0.0106872992631785</v>
       </c>
       <c r="H57" t="n">
-        <v>99.56556125042125</v>
+        <v>85.10897115566462</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03739668280708996</v>
+        <v>0.05433593940448143</v>
       </c>
       <c r="H58" t="n">
-        <v>49.52329178825756</v>
+        <v>117.2515825554734</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02746142639841322</v>
+        <v>0.02976558436578546</v>
       </c>
       <c r="H59" t="n">
-        <v>15.97559188196287</v>
+        <v>25.70655341974288</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04108202904531943</v>
+        <v>0.04101846235255185</v>
       </c>
       <c r="H60" t="n">
-        <v>26.62966471017844</v>
+        <v>26.43372918364897</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02417339862746098</v>
+        <v>0.03200459390181736</v>
       </c>
       <c r="H61" t="n">
-        <v>90.97338972433883</v>
+        <v>152.8409793911934</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.06153522505440915</v>
+        <v>0.07155275983816951</v>
       </c>
       <c r="H62" t="n">
-        <v>1.94260485169043</v>
+        <v>18.53819849981627</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07210013238567793</v>
+        <v>0.07151866390372073</v>
       </c>
       <c r="H63" t="n">
-        <v>121.237352857866</v>
+        <v>119.4531321711361</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02180238043021238</v>
+        <v>0.01924323859880504</v>
       </c>
       <c r="H64" t="n">
-        <v>-46.20173950071158</v>
+        <v>-52.51652605997614</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.05303167122227689</v>
+        <v>0.04470234402438304</v>
       </c>
       <c r="H65" t="n">
-        <v>-5.405183883325054</v>
+        <v>-20.26255413963732</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.08392392134231118</v>
+        <v>0.1162138588239151</v>
       </c>
       <c r="H66" t="n">
-        <v>-10.29370468462497</v>
+        <v>24.22101556569537</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1065455101866567</v>
+        <v>0.1139807233203216</v>
       </c>
       <c r="H67" t="n">
-        <v>-7.710181062351698</v>
+        <v>-1.269792606126597</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.02889048395500408</v>
+        <v>-0.04298043932356216</v>
       </c>
       <c r="H68" t="n">
-        <v>-17.10162506634963</v>
+        <v>-23.32810275545842</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.0007576656314903308</v>
+        <v>0.009084140702235623</v>
       </c>
       <c r="H69" t="n">
-        <v>-96.42978567296136</v>
+        <v>142.8055964742153</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07545561454045842</v>
+        <v>0.07136933824531512</v>
       </c>
       <c r="H70" t="n">
-        <v>-18.54634869289562</v>
+        <v>-22.95744687977239</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.07836317406638575</v>
+        <v>0.06751550598069112</v>
       </c>
       <c r="H71" t="n">
-        <v>-14.08375370889993</v>
+        <v>-25.97697950071262</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.06594601021076657</v>
+        <v>-0.05651715716889315</v>
       </c>
       <c r="H72" t="n">
-        <v>17.59059123619231</v>
+        <v>-0.7776801847205586</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.08262952655223796</v>
+        <v>-0.1095670998551015</v>
       </c>
       <c r="H73" t="n">
-        <v>12.02091289727703</v>
+        <v>-48.54020180687038</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1015306770095539</v>
+        <v>0.1008428982636864</v>
       </c>
       <c r="H74" t="n">
-        <v>1.584713174185008</v>
+        <v>0.8965683820481898</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1571052208692626</v>
+        <v>0.1319076018571863</v>
       </c>
       <c r="H75" t="n">
-        <v>61.29233324334826</v>
+        <v>35.42315626662127</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.01210790571697372</v>
+        <v>0.03241523938044558</v>
       </c>
       <c r="H76" t="n">
-        <v>-52.6491107282686</v>
+        <v>26.76762162662265</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.002309383244191737</v>
+        <v>0.01501380445696309</v>
       </c>
       <c r="H77" t="n">
-        <v>-116.3681102323841</v>
+        <v>6.412656702651737</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.08124129630744284</v>
+        <v>0.09114030370196438</v>
       </c>
       <c r="H78" t="n">
-        <v>26.39254472555744</v>
+        <v>41.79309582109754</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09329728132923278</v>
+        <v>0.09894927701230079</v>
       </c>
       <c r="H79" t="n">
-        <v>21.61718528553049</v>
+        <v>28.98481482872196</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1893103548614685</v>
+        <v>-0.1968259108035692</v>
       </c>
       <c r="H80" t="n">
-        <v>14.31204709149498</v>
+        <v>-18.85019602371191</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.162768049861107</v>
+        <v>-0.1365362466125887</v>
       </c>
       <c r="H81" t="n">
-        <v>-22.52535145675762</v>
+        <v>35.01121547656149</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1281508868511782</v>
+        <v>0.1292639796065003</v>
       </c>
       <c r="H82" t="n">
-        <v>11.73156663320177</v>
+        <v>12.70204448486605</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.209063080233076</v>
+        <v>0.1948298694351747</v>
       </c>
       <c r="H83" t="n">
-        <v>17.46290670768914</v>
+        <v>9.465921729562689</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.07395667916887157</v>
+        <v>0.04848844290290327</v>
       </c>
       <c r="H84" t="n">
-        <v>210.2515647907146</v>
+        <v>103.411178732628</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,10 +3242,10 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03795608045093564</v>
+        <v>0.1016572206468263</v>
       </c>
       <c r="H85" t="n">
-        <v>-38.35891043850432</v>
+        <v>65.0924375756844</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>

--- a/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_quarter.xlsx
+++ b/Code/Data/DJI/Compared Returns/Manual Recurrence/input 30/DJI_returns_compared_quarter.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -501,13 +501,13 @@
         <v>0.04227865906030299</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04897152071431162</v>
+        <v>0.05317404096554723</v>
       </c>
       <c r="H2" t="n">
-        <v>15.83035461096923</v>
+        <v>25.77040556017616</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3745941685984026</v>
+        <v>37.55888262019705</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>0.04870034920601938</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06161644760434993</v>
+        <v>0.06168516077963999</v>
       </c>
       <c r="H3" t="n">
-        <v>26.52157245051975</v>
+        <v>26.66266625458957</v>
       </c>
       <c r="I3" t="inlineStr"/>
     </row>
@@ -569,10 +569,10 @@
         <v>0.001903895554279626</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.006093676716984563</v>
+        <v>-0.001353261080915298</v>
       </c>
       <c r="H4" t="n">
-        <v>-420.063603451725</v>
+        <v>-171.0785356829792</v>
       </c>
       <c r="I4" t="inlineStr"/>
     </row>
@@ -602,10 +602,10 @@
         <v>0.003796350922797718</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002707114828711582</v>
+        <v>0.01310433216054829</v>
       </c>
       <c r="H5" t="n">
-        <v>-28.69165986592789</v>
+        <v>245.1823192069679</v>
       </c>
       <c r="I5" t="inlineStr"/>
     </row>
@@ -635,10 +635,10 @@
         <v>0.03466957945683312</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02123993786832681</v>
+        <v>0.04081088027351821</v>
       </c>
       <c r="H6" t="n">
-        <v>-38.73609602108809</v>
+        <v>17.71380245419932</v>
       </c>
       <c r="I6" t="inlineStr"/>
     </row>
@@ -668,10 +668,10 @@
         <v>0.05318894644845207</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07393751212338077</v>
+        <v>0.07274923464881315</v>
       </c>
       <c r="H7" t="n">
-        <v>39.00916837117111</v>
+        <v>36.77509991538916</v>
       </c>
       <c r="I7" t="inlineStr"/>
     </row>
@@ -701,10 +701,10 @@
         <v>-0.0188207750246863</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02444832773774197</v>
+        <v>-0.01982648965361706</v>
       </c>
       <c r="H8" t="n">
-        <v>-29.90074906944205</v>
+        <v>-5.343640884137939</v>
       </c>
       <c r="I8" t="inlineStr"/>
     </row>
@@ -734,10 +734,10 @@
         <v>-0.02152790501419843</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02894502473046889</v>
+        <v>0.007608050647025095</v>
       </c>
       <c r="H9" t="n">
-        <v>234.4535137598322</v>
+        <v>135.3404134866227</v>
       </c>
       <c r="I9" t="inlineStr"/>
     </row>
@@ -767,10 +767,10 @@
         <v>-0.07270135600124471</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08431391100214167</v>
+        <v>-0.0529067380102807</v>
       </c>
       <c r="H10" t="n">
-        <v>-15.97295516839898</v>
+        <v>27.22730232242863</v>
       </c>
       <c r="I10" t="inlineStr"/>
     </row>
@@ -800,10 +800,10 @@
         <v>-0.09201104153011744</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08399990927501251</v>
+        <v>-0.09317683621115115</v>
       </c>
       <c r="H11" t="n">
-        <v>8.706707501493383</v>
+        <v>-1.267016068557512</v>
       </c>
       <c r="I11" t="inlineStr"/>
     </row>
@@ -833,10 +833,10 @@
         <v>-0.2444546442364949</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.228404069243767</v>
+        <v>-0.2159998724061861</v>
       </c>
       <c r="H12" t="n">
-        <v>6.565870344929901</v>
+        <v>11.64010277619457</v>
       </c>
       <c r="I12" t="inlineStr"/>
     </row>
@@ -866,10 +866,10 @@
         <v>-0.2748132209251613</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2705652763176778</v>
+        <v>-0.2812136524745084</v>
       </c>
       <c r="H13" t="n">
-        <v>1.545757002950137</v>
+        <v>-2.329011511091058</v>
       </c>
       <c r="I13" t="inlineStr"/>
     </row>
@@ -899,10 +899,10 @@
         <v>-0.03709719360824614</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.07851438935273379</v>
+        <v>-0.04641075312079999</v>
       </c>
       <c r="H14" t="n">
-        <v>-111.6450914909133</v>
+        <v>-25.10583310130388</v>
       </c>
       <c r="I14" t="inlineStr"/>
     </row>
@@ -932,10 +932,10 @@
         <v>-0.03477135930585561</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.004228536505660871</v>
+        <v>0.01619364046126515</v>
       </c>
       <c r="H15" t="n">
-        <v>87.83902444403785</v>
+        <v>146.5717785687432</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -965,10 +965,10 @@
         <v>0.1253081874494862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.112293905996712</v>
+        <v>0.1203164502521125</v>
       </c>
       <c r="H16" t="n">
-        <v>-10.38581892984485</v>
+        <v>-3.983568271934315</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -998,10 +998,10 @@
         <v>0.140250491181987</v>
       </c>
       <c r="G17" t="n">
-        <v>0.131772785580724</v>
+        <v>0.1531031276612776</v>
       </c>
       <c r="H17" t="n">
-        <v>-6.044688706481937</v>
+        <v>9.164058087050252</v>
       </c>
       <c r="I17" t="inlineStr"/>
     </row>
@@ -1031,10 +1031,10 @@
         <v>0.1247327240054478</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1275524207718969</v>
+        <v>0.1175712280463526</v>
       </c>
       <c r="H18" t="n">
-        <v>2.260591026879167</v>
+        <v>-5.741473231020283</v>
       </c>
       <c r="I18" t="inlineStr"/>
     </row>
@@ -1064,10 +1064,10 @@
         <v>0.1332138428780554</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1233227248906218</v>
+        <v>0.11680660938743</v>
       </c>
       <c r="H19" t="n">
-        <v>-7.424992608679556</v>
+        <v>-12.31646286613372</v>
       </c>
       <c r="I19" t="inlineStr"/>
     </row>
@@ -1097,10 +1097,10 @@
         <v>0.0343361127148248</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04343994456343899</v>
+        <v>0.04714758823677372</v>
       </c>
       <c r="H20" t="n">
-        <v>26.51386871957572</v>
+        <v>37.31195673882298</v>
       </c>
       <c r="I20" t="inlineStr"/>
     </row>
@@ -1130,10 +1130,10 @@
         <v>0.0580398626137602</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04417070683778238</v>
+        <v>0.08049770927079271</v>
       </c>
       <c r="H21" t="n">
-        <v>-23.89591420688458</v>
+        <v>38.69383152486677</v>
       </c>
       <c r="I21" t="inlineStr"/>
     </row>
@@ -1163,10 +1163,10 @@
         <v>-0.07984798411300953</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.06929198704654332</v>
+        <v>-0.08761473821967959</v>
       </c>
       <c r="H22" t="n">
-        <v>13.22011718107524</v>
+        <v>-9.726925723857612</v>
       </c>
       <c r="I22" t="inlineStr"/>
     </row>
@@ -1196,10 +1196,10 @@
         <v>-0.0625464344148645</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.05384497281633821</v>
+        <v>-0.070245862208966</v>
       </c>
       <c r="H23" t="n">
-        <v>13.91200262641725</v>
+        <v>-12.30993879368396</v>
       </c>
       <c r="I23" t="inlineStr"/>
     </row>
@@ -1229,10 +1229,10 @@
         <v>0.1181145100376103</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1081806314496519</v>
+        <v>0.1023225986924817</v>
       </c>
       <c r="H24" t="n">
-        <v>-8.410379541679704</v>
+        <v>-13.3700011455833</v>
       </c>
       <c r="I24" t="inlineStr"/>
     </row>
@@ -1262,10 +1262,10 @@
         <v>0.1261703937413166</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1319581053077023</v>
+        <v>0.1435464888595356</v>
       </c>
       <c r="H25" t="n">
-        <v>4.587218439099161</v>
+        <v>13.77192747281481</v>
       </c>
       <c r="I25" t="inlineStr"/>
     </row>
@@ -1295,10 +1295,10 @@
         <v>0.04970410820324443</v>
       </c>
       <c r="G26" t="n">
-        <v>0.06097260409071388</v>
+        <v>0.04904992289272603</v>
       </c>
       <c r="H26" t="n">
-        <v>22.67115595634789</v>
+        <v>-1.316159436647336</v>
       </c>
       <c r="I26" t="inlineStr"/>
     </row>
@@ -1328,10 +1328,10 @@
         <v>0.08667657030365644</v>
       </c>
       <c r="G27" t="n">
-        <v>0.08627964584715897</v>
+        <v>0.08881274147405324</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.4579374277349867</v>
+        <v>2.464531260193028</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1361,10 +1361,10 @@
         <v>-0.06359403648639915</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09417325083052169</v>
+        <v>-0.07739644553108113</v>
       </c>
       <c r="H28" t="n">
-        <v>-48.0850344366213</v>
+        <v>-21.70393610355886</v>
       </c>
       <c r="I28" t="inlineStr"/>
     </row>
@@ -1394,10 +1394,10 @@
         <v>-0.07117222112479664</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1087870678671063</v>
+        <v>-0.09282872003794926</v>
       </c>
       <c r="H29" t="n">
-        <v>-52.85046068234131</v>
+        <v>-30.42830274353686</v>
       </c>
       <c r="I29" t="inlineStr"/>
     </row>
@@ -1427,10 +1427,10 @@
         <v>0.06370812679410731</v>
       </c>
       <c r="G30" t="n">
-        <v>0.05770942419999141</v>
+        <v>0.08285637894780777</v>
       </c>
       <c r="H30" t="n">
-        <v>-9.415914257693657</v>
+        <v>30.05621592922362</v>
       </c>
       <c r="I30" t="inlineStr"/>
     </row>
@@ -1460,10 +1460,10 @@
         <v>0.06058046126463257</v>
       </c>
       <c r="G31" t="n">
-        <v>0.06150796584682331</v>
+        <v>0.04796924637314676</v>
       </c>
       <c r="H31" t="n">
-        <v>1.531029250733402</v>
+        <v>-20.81729757123582</v>
       </c>
       <c r="I31" t="inlineStr"/>
     </row>
@@ -1493,10 +1493,10 @@
         <v>0.09826398425744942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.07221310413608721</v>
+        <v>0.08341370026068774</v>
       </c>
       <c r="H32" t="n">
-        <v>-26.51111729106108</v>
+        <v>-15.11264183818791</v>
       </c>
       <c r="I32" t="inlineStr"/>
     </row>
@@ -1526,10 +1526,10 @@
         <v>0.08228470513367886</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1084390441692693</v>
+        <v>0.1144072422754222</v>
       </c>
       <c r="H33" t="n">
-        <v>31.78517683584134</v>
+        <v>39.03828431973768</v>
       </c>
       <c r="I33" t="inlineStr"/>
     </row>
@@ -1559,10 +1559,10 @@
         <v>0.02605521596528097</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.003873312572378081</v>
+        <v>-0.01232324823825591</v>
       </c>
       <c r="H34" t="n">
-        <v>-114.8657857126932</v>
+        <v>-147.2966651079648</v>
       </c>
       <c r="I34" t="inlineStr"/>
     </row>
@@ -1592,10 +1592,10 @@
         <v>-0.01121010888812176</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.006222015626087195</v>
+        <v>0.03902046196721032</v>
       </c>
       <c r="H35" t="n">
-        <v>44.49638546615682</v>
+        <v>448.0828095127285</v>
       </c>
       <c r="I35" t="inlineStr"/>
     </row>
@@ -1625,10 +1625,10 @@
         <v>0.000538207081396954</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.007127508990366663</v>
+        <v>0.004822201568103772</v>
       </c>
       <c r="H36" t="n">
-        <v>-1424.306059271223</v>
+        <v>795.9751245909682</v>
       </c>
       <c r="I36" t="inlineStr"/>
     </row>
@@ -1658,10 +1658,10 @@
         <v>-0.01255426494131421</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.002929029570126664</v>
+        <v>-0.001016843596958523</v>
       </c>
       <c r="H37" t="n">
-        <v>76.66904765975055</v>
+        <v>91.90041311289964</v>
       </c>
       <c r="I37" t="inlineStr"/>
     </row>
@@ -1691,10 +1691,10 @@
         <v>0.1072572674319558</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1088286692939782</v>
+        <v>0.114065044069452</v>
       </c>
       <c r="H38" t="n">
-        <v>1.465077285340419</v>
+        <v>6.347147191508562</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1724,10 +1724,10 @@
         <v>0.08566278196826137</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09638141018461149</v>
+        <v>0.1160935791569639</v>
       </c>
       <c r="H39" t="n">
-        <v>12.51258477727404</v>
+        <v>35.52394224130772</v>
       </c>
       <c r="I39" t="inlineStr"/>
     </row>
@@ -1757,10 +1757,10 @@
         <v>0.002970257287648657</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02254409658196638</v>
+        <v>0.02557158787815362</v>
       </c>
       <c r="H40" t="n">
-        <v>658.9947401429642</v>
+        <v>760.9216442120688</v>
       </c>
       <c r="I40" t="inlineStr"/>
     </row>
@@ -1790,10 +1790,10 @@
         <v>0.01499674643284253</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02142627828945714</v>
+        <v>0.01874960816488109</v>
       </c>
       <c r="H41" t="n">
-        <v>42.8728450227983</v>
+        <v>25.02450614101122</v>
       </c>
       <c r="I41" t="inlineStr"/>
     </row>
@@ -1823,10 +1823,10 @@
         <v>0.1009351255258904</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1023554189459312</v>
+        <v>0.09934409092929099</v>
       </c>
       <c r="H42" t="n">
-        <v>1.407134942014298</v>
+        <v>-1.57629426654976</v>
       </c>
       <c r="I42" t="inlineStr"/>
     </row>
@@ -1856,10 +1856,10 @@
         <v>0.1201445032180963</v>
       </c>
       <c r="G43" t="n">
-        <v>0.136312793752373</v>
+        <v>0.1193266158267854</v>
       </c>
       <c r="H43" t="n">
-        <v>13.45737016776097</v>
+        <v>-0.6807530676840091</v>
       </c>
       <c r="I43" t="inlineStr"/>
     </row>
@@ -1889,10 +1889,10 @@
         <v>0.03568758707468612</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02438424464352845</v>
+        <v>0.02222781845011079</v>
       </c>
       <c r="H44" t="n">
-        <v>-31.67303636276195</v>
+        <v>-37.71554685500887</v>
       </c>
       <c r="I44" t="inlineStr"/>
     </row>
@@ -1922,10 +1922,10 @@
         <v>0.01637017416343009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.007700669758706816</v>
+        <v>0.02122277206697491</v>
       </c>
       <c r="H45" t="n">
-        <v>-52.95914581098585</v>
+        <v>29.64292166411527</v>
       </c>
       <c r="I45" t="inlineStr"/>
     </row>
@@ -1955,10 +1955,10 @@
         <v>0.03623851914325588</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05991213956845752</v>
+        <v>0.05518558269945474</v>
       </c>
       <c r="H46" t="n">
-        <v>65.32722910562802</v>
+        <v>52.28432067353109</v>
       </c>
       <c r="I46" t="inlineStr"/>
     </row>
@@ -1988,10 +1988,10 @@
         <v>0.0504403138663916</v>
       </c>
       <c r="G47" t="n">
-        <v>0.08146847173690272</v>
+        <v>0.07455245384012942</v>
       </c>
       <c r="H47" t="n">
-        <v>61.51460110398956</v>
+        <v>47.80331073594636</v>
       </c>
       <c r="I47" t="inlineStr"/>
     </row>
@@ -2021,10 +2021,10 @@
         <v>0.04278130222485538</v>
       </c>
       <c r="G48" t="n">
-        <v>0.04482967537714999</v>
+        <v>0.07471951535936576</v>
       </c>
       <c r="H48" t="n">
-        <v>4.788010289000823</v>
+        <v>74.65460720818054</v>
       </c>
       <c r="I48" t="inlineStr"/>
     </row>
@@ -2054,10 +2054,10 @@
         <v>0.06947610067096774</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04394657357260019</v>
+        <v>0.06468240872546509</v>
       </c>
       <c r="H49" t="n">
-        <v>-36.74576847551215</v>
+        <v>-6.899771143180766</v>
       </c>
       <c r="I49" t="inlineStr"/>
     </row>
@@ -2087,10 +2087,10 @@
         <v>0.01727270648762695</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02730252103732629</v>
+        <v>0.01239374283397024</v>
       </c>
       <c r="H50" t="n">
-        <v>58.06741726830158</v>
+        <v>-28.24666566963137</v>
       </c>
       <c r="I50" t="inlineStr"/>
     </row>
@@ -2120,10 +2120,10 @@
         <v>0.01946971104644109</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02689722657693246</v>
+        <v>0.03325972195793012</v>
       </c>
       <c r="H51" t="n">
-        <v>38.14907942277376</v>
+        <v>70.82802039843183</v>
       </c>
       <c r="I51" t="inlineStr"/>
     </row>
@@ -2153,10 +2153,10 @@
         <v>-0.1035204554120877</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.09698905763952953</v>
+        <v>-0.09270884550937053</v>
       </c>
       <c r="H52" t="n">
-        <v>6.309282302283532</v>
+        <v>10.44393579962433</v>
       </c>
       <c r="I52" t="inlineStr"/>
     </row>
@@ -2186,10 +2186,10 @@
         <v>-0.09235500825020453</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.06842636825123943</v>
+        <v>-0.08855806027246961</v>
       </c>
       <c r="H53" t="n">
-        <v>25.9094124426242</v>
+        <v>4.111252924636609</v>
       </c>
       <c r="I53" t="inlineStr"/>
     </row>
@@ -2219,10 +2219,10 @@
         <v>0.07312266103795016</v>
       </c>
       <c r="G54" t="n">
-        <v>0.07778875156170577</v>
+        <v>0.08746364964312812</v>
       </c>
       <c r="H54" t="n">
-        <v>6.381182601292282</v>
+        <v>19.6122356621227</v>
       </c>
       <c r="I54" t="inlineStr"/>
     </row>
@@ -2252,10 +2252,10 @@
         <v>0.06195165733408216</v>
       </c>
       <c r="G55" t="n">
-        <v>0.09184749469313373</v>
+        <v>0.08513667762585654</v>
       </c>
       <c r="H55" t="n">
-        <v>48.25671926391652</v>
+        <v>37.42437456797359</v>
       </c>
       <c r="I55" t="inlineStr"/>
     </row>
@@ -2285,10 +2285,10 @@
         <v>0.03498921493576074</v>
       </c>
       <c r="G56" t="n">
-        <v>0.02209074913251056</v>
+        <v>0.02209789226496149</v>
       </c>
       <c r="H56" t="n">
-        <v>-36.86411892044853</v>
+        <v>-36.84370367974066</v>
       </c>
       <c r="I56" t="inlineStr"/>
     </row>
@@ -2318,10 +2318,10 @@
         <v>0.00577351772658883</v>
       </c>
       <c r="G57" t="n">
-        <v>0.0106872992631785</v>
+        <v>0.006401134120666794</v>
       </c>
       <c r="H57" t="n">
-        <v>85.10897115566462</v>
+        <v>10.87060651407716</v>
       </c>
       <c r="I57" t="inlineStr"/>
     </row>
@@ -2351,10 +2351,10 @@
         <v>0.02501060694948318</v>
       </c>
       <c r="G58" t="n">
-        <v>0.05433593940448143</v>
+        <v>0.04511046429209091</v>
       </c>
       <c r="H58" t="n">
-        <v>117.2515825554734</v>
+        <v>80.36533212970697</v>
       </c>
       <c r="I58" t="inlineStr"/>
     </row>
@@ -2384,10 +2384,10 @@
         <v>0.02367862578046835</v>
       </c>
       <c r="G59" t="n">
-        <v>0.02976558436578546</v>
+        <v>0.02027707983176593</v>
       </c>
       <c r="H59" t="n">
-        <v>25.70655341974288</v>
+        <v>-14.36547027787497</v>
       </c>
       <c r="I59" t="inlineStr"/>
     </row>
@@ -2417,10 +2417,10 @@
         <v>0.03244265799751207</v>
       </c>
       <c r="G60" t="n">
-        <v>0.04101846235255185</v>
+        <v>0.02097743280312326</v>
       </c>
       <c r="H60" t="n">
-        <v>26.43372918364897</v>
+        <v>-35.3399687388994</v>
       </c>
       <c r="I60" t="inlineStr"/>
     </row>
@@ -2450,10 +2450,10 @@
         <v>0.01265799316980976</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03200459390181736</v>
+        <v>0.01020469536638959</v>
       </c>
       <c r="H61" t="n">
-        <v>152.8409793911934</v>
+        <v>-19.38141197035454</v>
       </c>
       <c r="I61" t="inlineStr"/>
     </row>
@@ -2483,10 +2483,10 @@
         <v>0.06036261791027676</v>
       </c>
       <c r="G62" t="n">
-        <v>0.07155275983816951</v>
+        <v>0.07222091245121878</v>
       </c>
       <c r="H62" t="n">
-        <v>18.53819849981627</v>
+        <v>19.64509650421101</v>
       </c>
       <c r="I62" t="inlineStr"/>
     </row>
@@ -2516,10 +2516,10 @@
         <v>0.0325894933447331</v>
       </c>
       <c r="G63" t="n">
-        <v>0.07151866390372073</v>
+        <v>0.070079337841184</v>
       </c>
       <c r="H63" t="n">
-        <v>119.4531321711361</v>
+        <v>115.0365981449349</v>
       </c>
       <c r="I63" t="inlineStr"/>
     </row>
@@ -2549,10 +2549,10 @@
         <v>0.04052618101007328</v>
       </c>
       <c r="G64" t="n">
-        <v>0.01924323859880504</v>
+        <v>0.02288931602641685</v>
       </c>
       <c r="H64" t="n">
-        <v>-52.51652605997614</v>
+        <v>-43.51968170717237</v>
       </c>
       <c r="I64" t="inlineStr"/>
     </row>
@@ -2582,10 +2582,10 @@
         <v>0.05606192114889961</v>
       </c>
       <c r="G65" t="n">
-        <v>0.04470234402438304</v>
+        <v>0.05719113234736888</v>
       </c>
       <c r="H65" t="n">
-        <v>-20.26255413963732</v>
+        <v>2.014221374023387</v>
       </c>
       <c r="I65" t="inlineStr"/>
     </row>
@@ -2615,10 +2615,10 @@
         <v>0.09355410458905353</v>
       </c>
       <c r="G66" t="n">
-        <v>0.1162138588239151</v>
+        <v>0.09276411012212529</v>
       </c>
       <c r="H66" t="n">
-        <v>24.22101556569537</v>
+        <v>-0.8444252343586314</v>
       </c>
       <c r="I66" t="inlineStr"/>
     </row>
@@ -2648,10 +2648,10 @@
         <v>0.1154466564276604</v>
       </c>
       <c r="G67" t="n">
-        <v>0.1139807233203216</v>
+        <v>0.07621833771305943</v>
       </c>
       <c r="H67" t="n">
-        <v>-1.269792606126597</v>
+        <v>-33.97960575773079</v>
       </c>
       <c r="I67" t="inlineStr"/>
     </row>
@@ -2681,10 +2681,10 @@
         <v>-0.0348504828690879</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.04298043932356216</v>
+        <v>-0.02502512080103806</v>
       </c>
       <c r="H68" t="n">
-        <v>-23.32810275545842</v>
+        <v>28.19290081275992</v>
       </c>
       <c r="I68" t="inlineStr"/>
     </row>
@@ -2714,10 +2714,10 @@
         <v>-0.02122185286614946</v>
       </c>
       <c r="G69" t="n">
-        <v>0.009084140702235623</v>
+        <v>-0.01540015990267722</v>
       </c>
       <c r="H69" t="n">
-        <v>142.8055964742153</v>
+        <v>27.43253852616377</v>
       </c>
       <c r="I69" t="inlineStr"/>
     </row>
@@ -2747,10 +2747,10 @@
         <v>0.0926362579572626</v>
       </c>
       <c r="G70" t="n">
-        <v>0.07136933824531512</v>
+        <v>0.06577541254205625</v>
       </c>
       <c r="H70" t="n">
-        <v>-22.95744687977239</v>
+        <v>-28.99603892419586</v>
       </c>
       <c r="I70" t="inlineStr"/>
     </row>
@@ -2780,10 +2780,10 @@
         <v>0.09120879629782344</v>
       </c>
       <c r="G71" t="n">
-        <v>0.06751550598069112</v>
+        <v>0.09587073694100312</v>
       </c>
       <c r="H71" t="n">
-        <v>-25.97697950071262</v>
+        <v>5.111284034444527</v>
       </c>
       <c r="I71" t="inlineStr"/>
     </row>
@@ -2813,10 +2813,10 @@
         <v>-0.05608102614120504</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.05651715716889315</v>
+        <v>-0.05946445453862801</v>
       </c>
       <c r="H72" t="n">
-        <v>-0.7776801847205586</v>
+        <v>-6.033107149116565</v>
       </c>
       <c r="I72" t="inlineStr"/>
     </row>
@@ -2846,10 +2846,10 @@
         <v>-0.0737625898728473</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.1095670998551015</v>
+        <v>-0.07656199021610349</v>
       </c>
       <c r="H73" t="n">
-        <v>-48.54020180687038</v>
+        <v>-3.795149205148341</v>
       </c>
       <c r="I73" t="inlineStr"/>
     </row>
@@ -2879,10 +2879,10 @@
         <v>0.09994680679509479</v>
       </c>
       <c r="G74" t="n">
-        <v>0.1008428982636864</v>
+        <v>0.1045170598540026</v>
       </c>
       <c r="H74" t="n">
-        <v>0.8965683820481898</v>
+        <v>4.57268541683125</v>
       </c>
       <c r="I74" t="inlineStr"/>
     </row>
@@ -2912,10 +2912,10 @@
         <v>0.09740402268980237</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1319076018571863</v>
+        <v>0.1475319747534058</v>
       </c>
       <c r="H75" t="n">
-        <v>35.42315626662127</v>
+        <v>51.46394438271133</v>
       </c>
       <c r="I75" t="inlineStr"/>
     </row>
@@ -2945,10 +2945,10 @@
         <v>0.02557059836297979</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03241523938044558</v>
+        <v>0.02454732485074196</v>
       </c>
       <c r="H76" t="n">
-        <v>26.76762162662265</v>
+        <v>-4.001758182238276</v>
       </c>
       <c r="I76" t="inlineStr"/>
     </row>
@@ -2978,10 +2978,10 @@
         <v>0.01410904014821853</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01501380445696309</v>
+        <v>0.002703945619253274</v>
       </c>
       <c r="H77" t="n">
-        <v>6.412656702651737</v>
+        <v>-80.83536802753596</v>
       </c>
       <c r="I77" t="inlineStr"/>
     </row>
@@ -3011,10 +3011,10 @@
         <v>0.06427696861697516</v>
       </c>
       <c r="G78" t="n">
-        <v>0.09114030370196438</v>
+        <v>0.09951696997094481</v>
       </c>
       <c r="H78" t="n">
-        <v>41.79309582109754</v>
+        <v>54.82523851422418</v>
       </c>
       <c r="I78" t="inlineStr"/>
     </row>
@@ -3044,10 +3044,10 @@
         <v>0.07671389623940993</v>
       </c>
       <c r="G79" t="n">
-        <v>0.09894927701230079</v>
+        <v>0.09360585370707446</v>
       </c>
       <c r="H79" t="n">
-        <v>28.98481482872196</v>
+        <v>22.01942320195528</v>
       </c>
       <c r="I79" t="inlineStr"/>
     </row>
@@ -3077,10 +3077,10 @@
         <v>-0.1656084023322101</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.1968259108035692</v>
+        <v>-0.2118690307330025</v>
       </c>
       <c r="H80" t="n">
-        <v>-18.85019602371191</v>
+        <v>-27.93374475528945</v>
       </c>
       <c r="I80" t="inlineStr"/>
     </row>
@@ -3110,10 +3110,10 @@
         <v>-0.2100920145126676</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.1365362466125887</v>
+        <v>-0.1091125487676467</v>
       </c>
       <c r="H81" t="n">
-        <v>35.01121547656149</v>
+        <v>48.06439977228754</v>
       </c>
       <c r="I81" t="inlineStr"/>
     </row>
@@ -3143,10 +3143,10 @@
         <v>0.1146953280194116</v>
       </c>
       <c r="G82" t="n">
-        <v>0.1292639796065003</v>
+        <v>0.1327137998371498</v>
       </c>
       <c r="H82" t="n">
-        <v>12.70204448486605</v>
+        <v>15.70985682580607</v>
       </c>
       <c r="I82" t="inlineStr"/>
     </row>
@@ -3176,10 +3176,10 @@
         <v>0.1779822125067425</v>
       </c>
       <c r="G83" t="n">
-        <v>0.1948298694351747</v>
+        <v>0.1736071975087026</v>
       </c>
       <c r="H83" t="n">
-        <v>9.465921729562689</v>
+        <v>-2.458119233613961</v>
       </c>
       <c r="I83" t="inlineStr"/>
     </row>
@@ -3209,10 +3209,10 @@
         <v>0.02383764904417494</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04848844290290327</v>
+        <v>0.07606511271635366</v>
       </c>
       <c r="H84" t="n">
-        <v>103.411178732628</v>
+        <v>219.096537478981</v>
       </c>
       <c r="I84" t="inlineStr"/>
     </row>
@@ -3242,14 +3242,14 @@
         <v>0.0615759402063604</v>
       </c>
       <c r="G85" t="n">
-        <v>0.1016572206468263</v>
+        <v>0.06727430571410269</v>
       </c>
       <c r="H85" t="n">
-        <v>65.0924375756844</v>
+        <v>9.254207875097432</v>
       </c>
       <c r="I85" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>